--- a/反復計画書.xlsx
+++ b/反復計画書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9DD7FA13-FF73-45EE-8BA8-49A0E899101B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93B061CA-A665-41F1-8394-0AFC85A8175E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE3990-ECD6-4A6D-B3C6-3EB94FF1CA0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="240" windowWidth="15615" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1357,11 +1357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1370,7 +1370,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1381,14 +1381,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -1397,7 +1397,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
         <v>33</v>
@@ -1406,7 +1406,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -1436,7 +1436,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>7</v>
@@ -1451,7 +1451,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>8</v>
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>10</v>
@@ -1481,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="156.75" customHeight="1">
+    <row r="10" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -1496,7 +1496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>17</v>
@@ -1505,7 +1505,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>7</v>
@@ -1525,7 +1525,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>8</v>
@@ -1534,7 +1534,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="144" customHeight="1">
+    <row r="15" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>14</v>
@@ -1543,7 +1543,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>17</v>
@@ -1572,7 +1572,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1581,7 +1581,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -1601,7 +1601,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -1610,14 +1610,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -1647,7 +1647,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>7</v>
@@ -1662,7 +1662,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>8</v>
@@ -1677,7 +1677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>10</v>
@@ -1692,7 +1692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>17</v>
@@ -1716,7 +1716,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>7</v>
@@ -1736,7 +1736,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>8</v>
@@ -1745,7 +1745,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>14</v>
@@ -1754,7 +1754,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>17</v>
@@ -1776,9 +1776,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,19 +1969,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2002,9 +2001,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>